--- a/locations/A06.xlsx
+++ b/locations/A06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/bulk_report_webapp/locations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/Deployment/bulk_report_webapp/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96EB256-08D9-45DF-B720-38242A6AC440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80903BED-4434-41C7-A880-681CF5AC5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="347">
   <si>
     <t>Bay:</t>
   </si>
@@ -41,505 +41,526 @@
     <t>G</t>
   </si>
   <si>
-    <t>06021G</t>
-  </si>
-  <si>
-    <t>06022G</t>
-  </si>
-  <si>
-    <t>06041G</t>
-  </si>
-  <si>
-    <t>06042G</t>
-  </si>
-  <si>
-    <t>06061G</t>
-  </si>
-  <si>
-    <t>06062G</t>
-  </si>
-  <si>
-    <t>06081G</t>
-  </si>
-  <si>
-    <t>06082G</t>
-  </si>
-  <si>
-    <t>06101G</t>
-  </si>
-  <si>
-    <t>06102G</t>
-  </si>
-  <si>
-    <t>06121G</t>
-  </si>
-  <si>
-    <t>06122G</t>
-  </si>
-  <si>
-    <t>06141G</t>
-  </si>
-  <si>
-    <t>06142G</t>
-  </si>
-  <si>
-    <t>06161G</t>
-  </si>
-  <si>
-    <t>06162G</t>
-  </si>
-  <si>
-    <t>06181G</t>
-  </si>
-  <si>
-    <t>06182G</t>
-  </si>
-  <si>
-    <t>06206G</t>
-  </si>
-  <si>
-    <t>06221G</t>
-  </si>
-  <si>
-    <t>06222G</t>
-  </si>
-  <si>
-    <t>06241G</t>
-  </si>
-  <si>
-    <t>06242G</t>
-  </si>
-  <si>
-    <t>06261G</t>
-  </si>
-  <si>
-    <t>06262G</t>
-  </si>
-  <si>
-    <t>06281G</t>
-  </si>
-  <si>
-    <t>06282G</t>
+    <t>06272G</t>
+  </si>
+  <si>
+    <t>06271G</t>
+  </si>
+  <si>
+    <t>06252G</t>
+  </si>
+  <si>
+    <t>06251G</t>
+  </si>
+  <si>
+    <t>06232G</t>
+  </si>
+  <si>
+    <t>06231G</t>
+  </si>
+  <si>
+    <t>06212G</t>
+  </si>
+  <si>
+    <t>06211G</t>
+  </si>
+  <si>
+    <t>06192G</t>
+  </si>
+  <si>
+    <t>06191G</t>
+  </si>
+  <si>
+    <t>06172G</t>
+  </si>
+  <si>
+    <t>06171G</t>
+  </si>
+  <si>
+    <t>06152G</t>
+  </si>
+  <si>
+    <t>06151G</t>
+  </si>
+  <si>
+    <t>06132G</t>
+  </si>
+  <si>
+    <t>06131G</t>
+  </si>
+  <si>
+    <t>06112G</t>
+  </si>
+  <si>
+    <t>06111G</t>
+  </si>
+  <si>
+    <t>06092G</t>
+  </si>
+  <si>
+    <t>06091G</t>
+  </si>
+  <si>
+    <t>06072G</t>
+  </si>
+  <si>
+    <t>06071G</t>
+  </si>
+  <si>
+    <t>06052G</t>
+  </si>
+  <si>
+    <t>06051G</t>
+  </si>
+  <si>
+    <t>06032G</t>
+  </si>
+  <si>
+    <t>06031G</t>
+  </si>
+  <si>
+    <t>06012G</t>
+  </si>
+  <si>
+    <t>06011G</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>06021F</t>
-  </si>
-  <si>
-    <t>06022F</t>
-  </si>
-  <si>
-    <t>06041F</t>
-  </si>
-  <si>
-    <t>06042F</t>
-  </si>
-  <si>
-    <t>06061F</t>
-  </si>
-  <si>
-    <t>06062F</t>
-  </si>
-  <si>
-    <t>06081F</t>
-  </si>
-  <si>
-    <t>06082F</t>
-  </si>
-  <si>
-    <t>06101F</t>
-  </si>
-  <si>
-    <t>06102F</t>
-  </si>
-  <si>
-    <t>06121F</t>
-  </si>
-  <si>
-    <t>06122F</t>
-  </si>
-  <si>
-    <t>06141F</t>
-  </si>
-  <si>
-    <t>06142F</t>
-  </si>
-  <si>
-    <t>06161F</t>
-  </si>
-  <si>
-    <t>06162F</t>
-  </si>
-  <si>
-    <t>06181F</t>
-  </si>
-  <si>
-    <t>06182F</t>
-  </si>
-  <si>
-    <t>06206F</t>
-  </si>
-  <si>
-    <t>06221F</t>
-  </si>
-  <si>
-    <t>06222F</t>
-  </si>
-  <si>
-    <t>06241F</t>
-  </si>
-  <si>
-    <t>06242F</t>
-  </si>
-  <si>
-    <t>06261F</t>
-  </si>
-  <si>
-    <t>06262F</t>
-  </si>
-  <si>
-    <t>06281F</t>
-  </si>
-  <si>
-    <t>06282F</t>
+    <t>06272F</t>
+  </si>
+  <si>
+    <t>06271F</t>
+  </si>
+  <si>
+    <t>06252F</t>
+  </si>
+  <si>
+    <t>06251F</t>
+  </si>
+  <si>
+    <t>06232F</t>
+  </si>
+  <si>
+    <t>06231F</t>
+  </si>
+  <si>
+    <t>06212F</t>
+  </si>
+  <si>
+    <t>06211F</t>
+  </si>
+  <si>
+    <t>06192F</t>
+  </si>
+  <si>
+    <t>06191F</t>
+  </si>
+  <si>
+    <t>06172F</t>
+  </si>
+  <si>
+    <t>06171F</t>
+  </si>
+  <si>
+    <t>06152F</t>
+  </si>
+  <si>
+    <t>06151F</t>
+  </si>
+  <si>
+    <t>06132F</t>
+  </si>
+  <si>
+    <t>06131F</t>
+  </si>
+  <si>
+    <t>06112F</t>
+  </si>
+  <si>
+    <t>06111F</t>
+  </si>
+  <si>
+    <t>06092F</t>
+  </si>
+  <si>
+    <t>06091F</t>
+  </si>
+  <si>
+    <t>06072F</t>
+  </si>
+  <si>
+    <t>06071F</t>
+  </si>
+  <si>
+    <t>06052F</t>
+  </si>
+  <si>
+    <t>06051F</t>
+  </si>
+  <si>
+    <t>06032F</t>
+  </si>
+  <si>
+    <t>06031F</t>
+  </si>
+  <si>
+    <t>06012F</t>
+  </si>
+  <si>
+    <t>06011F</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>06021E</t>
-  </si>
-  <si>
-    <t>06022E</t>
-  </si>
-  <si>
-    <t>06041E</t>
-  </si>
-  <si>
-    <t>06042E</t>
-  </si>
-  <si>
-    <t>06061E</t>
-  </si>
-  <si>
-    <t>06062E</t>
-  </si>
-  <si>
-    <t>06081E</t>
-  </si>
-  <si>
-    <t>06082E</t>
-  </si>
-  <si>
-    <t>06101E</t>
-  </si>
-  <si>
-    <t>06102E</t>
-  </si>
-  <si>
-    <t>06121E</t>
-  </si>
-  <si>
-    <t>06122E</t>
-  </si>
-  <si>
-    <t>06141E</t>
-  </si>
-  <si>
-    <t>06142E</t>
-  </si>
-  <si>
-    <t>06161E</t>
-  </si>
-  <si>
-    <t>06162E</t>
-  </si>
-  <si>
-    <t>06181E</t>
-  </si>
-  <si>
-    <t>06182E</t>
-  </si>
-  <si>
-    <t>06206E</t>
-  </si>
-  <si>
-    <t>06221E</t>
-  </si>
-  <si>
-    <t>06222E</t>
-  </si>
-  <si>
-    <t>06241E</t>
-  </si>
-  <si>
-    <t>06242E</t>
-  </si>
-  <si>
-    <t>06261E</t>
-  </si>
-  <si>
-    <t>06262E</t>
-  </si>
-  <si>
-    <t>06281E</t>
-  </si>
-  <si>
-    <t>06282E</t>
+    <t>06272E</t>
+  </si>
+  <si>
+    <t>06271E</t>
+  </si>
+  <si>
+    <t>06252E</t>
+  </si>
+  <si>
+    <t>06251E</t>
+  </si>
+  <si>
+    <t>06232E</t>
+  </si>
+  <si>
+    <t>06231E</t>
+  </si>
+  <si>
+    <t>06212E</t>
+  </si>
+  <si>
+    <t>06211E</t>
+  </si>
+  <si>
+    <t>06192E</t>
+  </si>
+  <si>
+    <t>06191E</t>
+  </si>
+  <si>
+    <t>06172E</t>
+  </si>
+  <si>
+    <t>06171E</t>
+  </si>
+  <si>
+    <t>06152E</t>
+  </si>
+  <si>
+    <t>06151E</t>
+  </si>
+  <si>
+    <t>06132E</t>
+  </si>
+  <si>
+    <t>06131E</t>
+  </si>
+  <si>
+    <t>06112E</t>
+  </si>
+  <si>
+    <t>06111E</t>
+  </si>
+  <si>
+    <t>06092E</t>
+  </si>
+  <si>
+    <t>06091E</t>
+  </si>
+  <si>
+    <t>06072E</t>
+  </si>
+  <si>
+    <t>06071E</t>
+  </si>
+  <si>
+    <t>06052E</t>
+  </si>
+  <si>
+    <t>06051E</t>
+  </si>
+  <si>
+    <t>06032E</t>
+  </si>
+  <si>
+    <t>06031E</t>
+  </si>
+  <si>
+    <t>06012E</t>
+  </si>
+  <si>
+    <t>06011E</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>06021D</t>
-  </si>
-  <si>
-    <t>06022D</t>
-  </si>
-  <si>
-    <t>06041D</t>
-  </si>
-  <si>
-    <t>06042D</t>
-  </si>
-  <si>
-    <t>06061D</t>
-  </si>
-  <si>
-    <t>06062D</t>
-  </si>
-  <si>
-    <t>06081D</t>
-  </si>
-  <si>
-    <t>06082D</t>
-  </si>
-  <si>
-    <t>06101D</t>
-  </si>
-  <si>
-    <t>06102D</t>
-  </si>
-  <si>
-    <t>06121D</t>
-  </si>
-  <si>
-    <t>06122D</t>
-  </si>
-  <si>
-    <t>06141D</t>
-  </si>
-  <si>
-    <t>06142D</t>
-  </si>
-  <si>
-    <t>06161D</t>
-  </si>
-  <si>
-    <t>06162D</t>
-  </si>
-  <si>
-    <t>06181D</t>
-  </si>
-  <si>
-    <t>06182D</t>
-  </si>
-  <si>
-    <t>06206D</t>
-  </si>
-  <si>
-    <t>06221D</t>
-  </si>
-  <si>
-    <t>06222D</t>
-  </si>
-  <si>
-    <t>06241D</t>
-  </si>
-  <si>
-    <t>06242D</t>
-  </si>
-  <si>
-    <t>06261D</t>
-  </si>
-  <si>
-    <t>06262D</t>
-  </si>
-  <si>
-    <t>06281D</t>
-  </si>
-  <si>
-    <t>06282D</t>
+    <t>06272D</t>
+  </si>
+  <si>
+    <t>06271D</t>
+  </si>
+  <si>
+    <t>06252D</t>
+  </si>
+  <si>
+    <t>06251D</t>
+  </si>
+  <si>
+    <t>06232D</t>
+  </si>
+  <si>
+    <t>06231D</t>
+  </si>
+  <si>
+    <t>06212D</t>
+  </si>
+  <si>
+    <t>06211D</t>
+  </si>
+  <si>
+    <t>06192D</t>
+  </si>
+  <si>
+    <t>06191D</t>
+  </si>
+  <si>
+    <t>06172D</t>
+  </si>
+  <si>
+    <t>06171D</t>
+  </si>
+  <si>
+    <t>06152D</t>
+  </si>
+  <si>
+    <t>06151D</t>
+  </si>
+  <si>
+    <t>06132D</t>
+  </si>
+  <si>
+    <t>06131D</t>
+  </si>
+  <si>
+    <t>06112D</t>
+  </si>
+  <si>
+    <t>06111D</t>
+  </si>
+  <si>
+    <t>06092D</t>
+  </si>
+  <si>
+    <t>06091D</t>
+  </si>
+  <si>
+    <t>06072D</t>
+  </si>
+  <si>
+    <t>06071D</t>
+  </si>
+  <si>
+    <t>06052D</t>
+  </si>
+  <si>
+    <t>06051D</t>
+  </si>
+  <si>
+    <t>06032D</t>
+  </si>
+  <si>
+    <t>06031D</t>
+  </si>
+  <si>
+    <t>06012D</t>
+  </si>
+  <si>
+    <t>06011D</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>06021C</t>
-  </si>
-  <si>
-    <t>06022C</t>
-  </si>
-  <si>
-    <t>06041C</t>
-  </si>
-  <si>
-    <t>06042C</t>
-  </si>
-  <si>
-    <t>06061C</t>
-  </si>
-  <si>
-    <t>06062C</t>
-  </si>
-  <si>
-    <t>06081C</t>
-  </si>
-  <si>
-    <t>06082C</t>
-  </si>
-  <si>
-    <t>06101C</t>
-  </si>
-  <si>
-    <t>06102C</t>
-  </si>
-  <si>
-    <t>06121C</t>
-  </si>
-  <si>
-    <t>06122C</t>
-  </si>
-  <si>
-    <t>06141C</t>
-  </si>
-  <si>
-    <t>06142C</t>
-  </si>
-  <si>
-    <t>06161C</t>
-  </si>
-  <si>
-    <t>06162C</t>
-  </si>
-  <si>
-    <t>06181C</t>
-  </si>
-  <si>
-    <t>06182C</t>
-  </si>
-  <si>
-    <t>06206C</t>
-  </si>
-  <si>
-    <t>06221C</t>
-  </si>
-  <si>
-    <t>06222C</t>
-  </si>
-  <si>
-    <t>06241C</t>
-  </si>
-  <si>
-    <t>06242C</t>
-  </si>
-  <si>
-    <t>06261C</t>
-  </si>
-  <si>
-    <t>06262C</t>
-  </si>
-  <si>
-    <t>06281C</t>
-  </si>
-  <si>
-    <t>06282C</t>
+    <t>06272C</t>
+  </si>
+  <si>
+    <t>06271C</t>
+  </si>
+  <si>
+    <t>06252C</t>
+  </si>
+  <si>
+    <t>06251C</t>
+  </si>
+  <si>
+    <t>06232C</t>
+  </si>
+  <si>
+    <t>06231C</t>
+  </si>
+  <si>
+    <t>06212C</t>
+  </si>
+  <si>
+    <t>06211C</t>
+  </si>
+  <si>
+    <t>06192C</t>
+  </si>
+  <si>
+    <t>06191C</t>
+  </si>
+  <si>
+    <t>06172C</t>
+  </si>
+  <si>
+    <t>06171C</t>
+  </si>
+  <si>
+    <t>06152C</t>
+  </si>
+  <si>
+    <t>06151C</t>
+  </si>
+  <si>
+    <t>06132C</t>
+  </si>
+  <si>
+    <t>06131C</t>
+  </si>
+  <si>
+    <t>06112C</t>
+  </si>
+  <si>
+    <t>06111C</t>
+  </si>
+  <si>
+    <t>06092C</t>
+  </si>
+  <si>
+    <t>06091C</t>
+  </si>
+  <si>
+    <t>06072C</t>
+  </si>
+  <si>
+    <t>06071C</t>
+  </si>
+  <si>
+    <t>06052C</t>
+  </si>
+  <si>
+    <t>06051C</t>
+  </si>
+  <si>
+    <t>06032C</t>
+  </si>
+  <si>
+    <t>06031C</t>
+  </si>
+  <si>
+    <t>06012C</t>
+  </si>
+  <si>
+    <t>06011C</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>06021B</t>
-  </si>
-  <si>
-    <t>06022B</t>
-  </si>
-  <si>
-    <t>06041B</t>
-  </si>
-  <si>
-    <t>06042B</t>
-  </si>
-  <si>
-    <t>06061B</t>
-  </si>
-  <si>
-    <t>06062B</t>
-  </si>
-  <si>
-    <t>06081B</t>
-  </si>
-  <si>
-    <t>06082B</t>
-  </si>
-  <si>
-    <t>06101B</t>
-  </si>
-  <si>
-    <t>06102B</t>
-  </si>
-  <si>
-    <t>06121B</t>
-  </si>
-  <si>
-    <t>06122B</t>
-  </si>
-  <si>
-    <t>06141B</t>
-  </si>
-  <si>
-    <t>06142B</t>
-  </si>
-  <si>
-    <t>06161B</t>
-  </si>
-  <si>
-    <t>06162B</t>
-  </si>
-  <si>
-    <t>06181B</t>
-  </si>
-  <si>
-    <t>06182B</t>
-  </si>
-  <si>
-    <t>06206B</t>
-  </si>
-  <si>
-    <t>06221B</t>
-  </si>
-  <si>
-    <t>06222B</t>
-  </si>
-  <si>
-    <t>06241B</t>
-  </si>
-  <si>
-    <t>06242B</t>
-  </si>
-  <si>
-    <t>06261B</t>
-  </si>
-  <si>
-    <t>06262B</t>
-  </si>
-  <si>
-    <t>06281B</t>
-  </si>
-  <si>
-    <t>06282B</t>
+    <t>06272B</t>
+  </si>
+  <si>
+    <t>06271B</t>
+  </si>
+  <si>
+    <t>06252B</t>
+  </si>
+  <si>
+    <t>06251B</t>
+  </si>
+  <si>
+    <t>06232B</t>
+  </si>
+  <si>
+    <t>06231B</t>
+  </si>
+  <si>
+    <t>06212B</t>
+  </si>
+  <si>
+    <t>06211B</t>
+  </si>
+  <si>
+    <t>06192B</t>
+  </si>
+  <si>
+    <t>06191B</t>
+  </si>
+  <si>
+    <t>06172B</t>
+  </si>
+  <si>
+    <t>06171B</t>
+  </si>
+  <si>
+    <t>06152B</t>
+  </si>
+  <si>
+    <t>06151B</t>
+  </si>
+  <si>
+    <t>06132B</t>
+  </si>
+  <si>
+    <t>06131B</t>
+  </si>
+  <si>
+    <t>06112B</t>
+  </si>
+  <si>
+    <t>06111B</t>
+  </si>
+  <si>
+    <t>06092B</t>
+  </si>
+  <si>
+    <t>06091B</t>
+  </si>
+  <si>
+    <t>06072B</t>
+  </si>
+  <si>
+    <t>06071B</t>
+  </si>
+  <si>
+    <t>06052B</t>
+  </si>
+  <si>
+    <t>06051B</t>
+  </si>
+  <si>
+    <t>06032B</t>
+  </si>
+  <si>
+    <t>06031B</t>
+  </si>
+  <si>
+    <t>06012B</t>
+  </si>
+  <si>
+    <t>06011B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>→ Walking Path →</t>
@@ -556,508 +577,508 @@
 E</t>
   </si>
   <si>
-    <t>06272G</t>
-  </si>
-  <si>
-    <t>06271G</t>
-  </si>
-  <si>
-    <t>06252G</t>
-  </si>
-  <si>
-    <t>06251G</t>
-  </si>
-  <si>
-    <t>06232G</t>
-  </si>
-  <si>
-    <t>06231G</t>
-  </si>
-  <si>
-    <t>06212G</t>
-  </si>
-  <si>
-    <t>06211G</t>
-  </si>
-  <si>
-    <t>06192G</t>
-  </si>
-  <si>
-    <t>06191G</t>
-  </si>
-  <si>
-    <t>06172G</t>
-  </si>
-  <si>
-    <t>06171G</t>
-  </si>
-  <si>
-    <t>06152G</t>
-  </si>
-  <si>
-    <t>06151G</t>
-  </si>
-  <si>
-    <t>06132G</t>
-  </si>
-  <si>
-    <t>06131G</t>
-  </si>
-  <si>
-    <t>06112G</t>
-  </si>
-  <si>
-    <t>06111G</t>
-  </si>
-  <si>
-    <t>06092G</t>
-  </si>
-  <si>
-    <t>06091G</t>
-  </si>
-  <si>
-    <t>06072G</t>
-  </si>
-  <si>
-    <t>06071G</t>
-  </si>
-  <si>
-    <t>06052G</t>
-  </si>
-  <si>
-    <t>06051G</t>
-  </si>
-  <si>
-    <t>06032G</t>
-  </si>
-  <si>
-    <t>06031G</t>
-  </si>
-  <si>
-    <t>06012G</t>
-  </si>
-  <si>
-    <t>06011G</t>
-  </si>
-  <si>
-    <t>06272F</t>
-  </si>
-  <si>
-    <t>06271F</t>
-  </si>
-  <si>
-    <t>06252F</t>
-  </si>
-  <si>
-    <t>06251F</t>
-  </si>
-  <si>
-    <t>06232F</t>
-  </si>
-  <si>
-    <t>06231F</t>
-  </si>
-  <si>
-    <t>06212F</t>
-  </si>
-  <si>
-    <t>06211F</t>
-  </si>
-  <si>
-    <t>06192F</t>
-  </si>
-  <si>
-    <t>06191F</t>
-  </si>
-  <si>
-    <t>06172F</t>
-  </si>
-  <si>
-    <t>06171F</t>
-  </si>
-  <si>
-    <t>06152F</t>
-  </si>
-  <si>
-    <t>06151F</t>
-  </si>
-  <si>
-    <t>06132F</t>
-  </si>
-  <si>
-    <t>06131F</t>
-  </si>
-  <si>
-    <t>06112F</t>
-  </si>
-  <si>
-    <t>06111F</t>
-  </si>
-  <si>
-    <t>06092F</t>
-  </si>
-  <si>
-    <t>06091F</t>
-  </si>
-  <si>
-    <t>06072F</t>
-  </si>
-  <si>
-    <t>06071F</t>
-  </si>
-  <si>
-    <t>06052F</t>
-  </si>
-  <si>
-    <t>06051F</t>
-  </si>
-  <si>
-    <t>06032F</t>
-  </si>
-  <si>
-    <t>06031F</t>
-  </si>
-  <si>
-    <t>06012F</t>
-  </si>
-  <si>
-    <t>06011F</t>
-  </si>
-  <si>
-    <t>06272E</t>
-  </si>
-  <si>
-    <t>06271E</t>
-  </si>
-  <si>
-    <t>06252E</t>
-  </si>
-  <si>
-    <t>06251E</t>
-  </si>
-  <si>
-    <t>06232E</t>
-  </si>
-  <si>
-    <t>06231E</t>
-  </si>
-  <si>
-    <t>06212E</t>
-  </si>
-  <si>
-    <t>06211E</t>
-  </si>
-  <si>
-    <t>06192E</t>
-  </si>
-  <si>
-    <t>06191E</t>
-  </si>
-  <si>
-    <t>06172E</t>
-  </si>
-  <si>
-    <t>06171E</t>
-  </si>
-  <si>
-    <t>06152E</t>
-  </si>
-  <si>
-    <t>06151E</t>
-  </si>
-  <si>
-    <t>06132E</t>
-  </si>
-  <si>
-    <t>06131E</t>
-  </si>
-  <si>
-    <t>06112E</t>
-  </si>
-  <si>
-    <t>06111E</t>
-  </si>
-  <si>
-    <t>06092E</t>
-  </si>
-  <si>
-    <t>06091E</t>
-  </si>
-  <si>
-    <t>06072E</t>
-  </si>
-  <si>
-    <t>06071E</t>
-  </si>
-  <si>
-    <t>06052E</t>
-  </si>
-  <si>
-    <t>06051E</t>
-  </si>
-  <si>
-    <t>06032E</t>
-  </si>
-  <si>
-    <t>06031E</t>
-  </si>
-  <si>
-    <t>06012E</t>
-  </si>
-  <si>
-    <t>06011E</t>
-  </si>
-  <si>
-    <t>06272D</t>
-  </si>
-  <si>
-    <t>06271D</t>
-  </si>
-  <si>
-    <t>06252D</t>
-  </si>
-  <si>
-    <t>06251D</t>
-  </si>
-  <si>
-    <t>06232D</t>
-  </si>
-  <si>
-    <t>06231D</t>
-  </si>
-  <si>
-    <t>06212D</t>
-  </si>
-  <si>
-    <t>06211D</t>
-  </si>
-  <si>
-    <t>06192D</t>
-  </si>
-  <si>
-    <t>06191D</t>
-  </si>
-  <si>
-    <t>06172D</t>
-  </si>
-  <si>
-    <t>06171D</t>
-  </si>
-  <si>
-    <t>06152D</t>
-  </si>
-  <si>
-    <t>06151D</t>
-  </si>
-  <si>
-    <t>06132D</t>
-  </si>
-  <si>
-    <t>06131D</t>
-  </si>
-  <si>
-    <t>06112D</t>
-  </si>
-  <si>
-    <t>06111D</t>
-  </si>
-  <si>
-    <t>06092D</t>
-  </si>
-  <si>
-    <t>06091D</t>
-  </si>
-  <si>
-    <t>06072D</t>
-  </si>
-  <si>
-    <t>06071D</t>
-  </si>
-  <si>
-    <t>06052D</t>
-  </si>
-  <si>
-    <t>06051D</t>
-  </si>
-  <si>
-    <t>06032D</t>
-  </si>
-  <si>
-    <t>06031D</t>
-  </si>
-  <si>
-    <t>06012D</t>
-  </si>
-  <si>
-    <t>06011D</t>
-  </si>
-  <si>
-    <t>06272C</t>
-  </si>
-  <si>
-    <t>06271C</t>
-  </si>
-  <si>
-    <t>06252C</t>
-  </si>
-  <si>
-    <t>06251C</t>
-  </si>
-  <si>
-    <t>06232C</t>
-  </si>
-  <si>
-    <t>06231C</t>
-  </si>
-  <si>
-    <t>06212C</t>
-  </si>
-  <si>
-    <t>06211C</t>
-  </si>
-  <si>
-    <t>06192C</t>
-  </si>
-  <si>
-    <t>06191C</t>
-  </si>
-  <si>
-    <t>06172C</t>
-  </si>
-  <si>
-    <t>06171C</t>
-  </si>
-  <si>
-    <t>06152C</t>
-  </si>
-  <si>
-    <t>06151C</t>
-  </si>
-  <si>
-    <t>06132C</t>
-  </si>
-  <si>
-    <t>06131C</t>
-  </si>
-  <si>
-    <t>06112C</t>
-  </si>
-  <si>
-    <t>06111C</t>
-  </si>
-  <si>
-    <t>06092C</t>
-  </si>
-  <si>
-    <t>06091C</t>
-  </si>
-  <si>
-    <t>06072C</t>
-  </si>
-  <si>
-    <t>06071C</t>
-  </si>
-  <si>
-    <t>06052C</t>
-  </si>
-  <si>
-    <t>06051C</t>
-  </si>
-  <si>
-    <t>06032C</t>
-  </si>
-  <si>
-    <t>06031C</t>
-  </si>
-  <si>
-    <t>06012C</t>
-  </si>
-  <si>
-    <t>06011C</t>
-  </si>
-  <si>
-    <t>06272B</t>
-  </si>
-  <si>
-    <t>06271B</t>
-  </si>
-  <si>
-    <t>06252B</t>
-  </si>
-  <si>
-    <t>06251B</t>
-  </si>
-  <si>
-    <t>06232B</t>
-  </si>
-  <si>
-    <t>06231B</t>
-  </si>
-  <si>
-    <t>06212B</t>
-  </si>
-  <si>
-    <t>06211B</t>
-  </si>
-  <si>
-    <t>06192B</t>
-  </si>
-  <si>
-    <t>06191B</t>
-  </si>
-  <si>
-    <t>06172B</t>
-  </si>
-  <si>
-    <t>06171B</t>
-  </si>
-  <si>
-    <t>06152B</t>
-  </si>
-  <si>
-    <t>06151B</t>
-  </si>
-  <si>
-    <t>06132B</t>
-  </si>
-  <si>
-    <t>06131B</t>
-  </si>
-  <si>
-    <t>06112B</t>
-  </si>
-  <si>
-    <t>06111B</t>
-  </si>
-  <si>
-    <t>06092B</t>
-  </si>
-  <si>
-    <t>06091B</t>
-  </si>
-  <si>
-    <t>06072B</t>
-  </si>
-  <si>
-    <t>06071B</t>
-  </si>
-  <si>
-    <t>06052B</t>
-  </si>
-  <si>
-    <t>06051B</t>
-  </si>
-  <si>
-    <t>06032B</t>
-  </si>
-  <si>
-    <t>06031B</t>
-  </si>
-  <si>
-    <t>06012B</t>
-  </si>
-  <si>
-    <t>06011B</t>
+    <t>06021G</t>
+  </si>
+  <si>
+    <t>06022G</t>
+  </si>
+  <si>
+    <t>06041G</t>
+  </si>
+  <si>
+    <t>06042G</t>
+  </si>
+  <si>
+    <t>06061G</t>
+  </si>
+  <si>
+    <t>06062G</t>
+  </si>
+  <si>
+    <t>06081G</t>
+  </si>
+  <si>
+    <t>06082G</t>
+  </si>
+  <si>
+    <t>06101G</t>
+  </si>
+  <si>
+    <t>06102G</t>
+  </si>
+  <si>
+    <t>06121G</t>
+  </si>
+  <si>
+    <t>06122G</t>
+  </si>
+  <si>
+    <t>06141G</t>
+  </si>
+  <si>
+    <t>06142G</t>
+  </si>
+  <si>
+    <t>06161G</t>
+  </si>
+  <si>
+    <t>06162G</t>
+  </si>
+  <si>
+    <t>06181G</t>
+  </si>
+  <si>
+    <t>06182G</t>
+  </si>
+  <si>
+    <t>06221G</t>
+  </si>
+  <si>
+    <t>06222G</t>
+  </si>
+  <si>
+    <t>06241G</t>
+  </si>
+  <si>
+    <t>06242G</t>
+  </si>
+  <si>
+    <t>06261G</t>
+  </si>
+  <si>
+    <t>06262G</t>
+  </si>
+  <si>
+    <t>06281G</t>
+  </si>
+  <si>
+    <t>06282G</t>
+  </si>
+  <si>
+    <t>06021F</t>
+  </si>
+  <si>
+    <t>06022F</t>
+  </si>
+  <si>
+    <t>06041F</t>
+  </si>
+  <si>
+    <t>06042F</t>
+  </si>
+  <si>
+    <t>06061F</t>
+  </si>
+  <si>
+    <t>06062F</t>
+  </si>
+  <si>
+    <t>06081F</t>
+  </si>
+  <si>
+    <t>06082F</t>
+  </si>
+  <si>
+    <t>06101F</t>
+  </si>
+  <si>
+    <t>06102F</t>
+  </si>
+  <si>
+    <t>06121F</t>
+  </si>
+  <si>
+    <t>06122F</t>
+  </si>
+  <si>
+    <t>06141F</t>
+  </si>
+  <si>
+    <t>06142F</t>
+  </si>
+  <si>
+    <t>06161F</t>
+  </si>
+  <si>
+    <t>06162F</t>
+  </si>
+  <si>
+    <t>06181F</t>
+  </si>
+  <si>
+    <t>06182F</t>
+  </si>
+  <si>
+    <t>06221F</t>
+  </si>
+  <si>
+    <t>06222F</t>
+  </si>
+  <si>
+    <t>06241F</t>
+  </si>
+  <si>
+    <t>06242F</t>
+  </si>
+  <si>
+    <t>06261F</t>
+  </si>
+  <si>
+    <t>06262F</t>
+  </si>
+  <si>
+    <t>06281F</t>
+  </si>
+  <si>
+    <t>06282F</t>
+  </si>
+  <si>
+    <t>06021E</t>
+  </si>
+  <si>
+    <t>06022E</t>
+  </si>
+  <si>
+    <t>06041E</t>
+  </si>
+  <si>
+    <t>06042E</t>
+  </si>
+  <si>
+    <t>06061E</t>
+  </si>
+  <si>
+    <t>06062E</t>
+  </si>
+  <si>
+    <t>06081E</t>
+  </si>
+  <si>
+    <t>06082E</t>
+  </si>
+  <si>
+    <t>06101E</t>
+  </si>
+  <si>
+    <t>06102E</t>
+  </si>
+  <si>
+    <t>06121E</t>
+  </si>
+  <si>
+    <t>06122E</t>
+  </si>
+  <si>
+    <t>06141E</t>
+  </si>
+  <si>
+    <t>06142E</t>
+  </si>
+  <si>
+    <t>06161E</t>
+  </si>
+  <si>
+    <t>06162E</t>
+  </si>
+  <si>
+    <t>06181E</t>
+  </si>
+  <si>
+    <t>06182E</t>
+  </si>
+  <si>
+    <t>06221E</t>
+  </si>
+  <si>
+    <t>06222E</t>
+  </si>
+  <si>
+    <t>06241E</t>
+  </si>
+  <si>
+    <t>06242E</t>
+  </si>
+  <si>
+    <t>06261E</t>
+  </si>
+  <si>
+    <t>06262E</t>
+  </si>
+  <si>
+    <t>06281E</t>
+  </si>
+  <si>
+    <t>06282E</t>
+  </si>
+  <si>
+    <t>06021D</t>
+  </si>
+  <si>
+    <t>06022D</t>
+  </si>
+  <si>
+    <t>06041D</t>
+  </si>
+  <si>
+    <t>06042D</t>
+  </si>
+  <si>
+    <t>06061D</t>
+  </si>
+  <si>
+    <t>06062D</t>
+  </si>
+  <si>
+    <t>06081D</t>
+  </si>
+  <si>
+    <t>06082D</t>
+  </si>
+  <si>
+    <t>06101D</t>
+  </si>
+  <si>
+    <t>06102D</t>
+  </si>
+  <si>
+    <t>06121D</t>
+  </si>
+  <si>
+    <t>06122D</t>
+  </si>
+  <si>
+    <t>06141D</t>
+  </si>
+  <si>
+    <t>06142D</t>
+  </si>
+  <si>
+    <t>06161D</t>
+  </si>
+  <si>
+    <t>06162D</t>
+  </si>
+  <si>
+    <t>06181D</t>
+  </si>
+  <si>
+    <t>06182D</t>
+  </si>
+  <si>
+    <t>06221D</t>
+  </si>
+  <si>
+    <t>06222D</t>
+  </si>
+  <si>
+    <t>06241D</t>
+  </si>
+  <si>
+    <t>06242D</t>
+  </si>
+  <si>
+    <t>06261D</t>
+  </si>
+  <si>
+    <t>06262D</t>
+  </si>
+  <si>
+    <t>06281D</t>
+  </si>
+  <si>
+    <t>06282D</t>
+  </si>
+  <si>
+    <t>06021C</t>
+  </si>
+  <si>
+    <t>06022C</t>
+  </si>
+  <si>
+    <t>06041C</t>
+  </si>
+  <si>
+    <t>06042C</t>
+  </si>
+  <si>
+    <t>06061C</t>
+  </si>
+  <si>
+    <t>06062C</t>
+  </si>
+  <si>
+    <t>06081C</t>
+  </si>
+  <si>
+    <t>06082C</t>
+  </si>
+  <si>
+    <t>06101C</t>
+  </si>
+  <si>
+    <t>06102C</t>
+  </si>
+  <si>
+    <t>06121C</t>
+  </si>
+  <si>
+    <t>06122C</t>
+  </si>
+  <si>
+    <t>06141C</t>
+  </si>
+  <si>
+    <t>06142C</t>
+  </si>
+  <si>
+    <t>06161C</t>
+  </si>
+  <si>
+    <t>06162C</t>
+  </si>
+  <si>
+    <t>06181C</t>
+  </si>
+  <si>
+    <t>06182C</t>
+  </si>
+  <si>
+    <t>06221C</t>
+  </si>
+  <si>
+    <t>06222C</t>
+  </si>
+  <si>
+    <t>06241C</t>
+  </si>
+  <si>
+    <t>06242C</t>
+  </si>
+  <si>
+    <t>06261C</t>
+  </si>
+  <si>
+    <t>06262C</t>
+  </si>
+  <si>
+    <t>06281C</t>
+  </si>
+  <si>
+    <t>06282C</t>
+  </si>
+  <si>
+    <t>06021B</t>
+  </si>
+  <si>
+    <t>06022B</t>
+  </si>
+  <si>
+    <t>06041B</t>
+  </si>
+  <si>
+    <t>06042B</t>
+  </si>
+  <si>
+    <t>06061B</t>
+  </si>
+  <si>
+    <t>06062B</t>
+  </si>
+  <si>
+    <t>06081B</t>
+  </si>
+  <si>
+    <t>06082B</t>
+  </si>
+  <si>
+    <t>06101B</t>
+  </si>
+  <si>
+    <t>06102B</t>
+  </si>
+  <si>
+    <t>06121B</t>
+  </si>
+  <si>
+    <t>06122B</t>
+  </si>
+  <si>
+    <t>06141B</t>
+  </si>
+  <si>
+    <t>06142B</t>
+  </si>
+  <si>
+    <t>06161B</t>
+  </si>
+  <si>
+    <t>06162B</t>
+  </si>
+  <si>
+    <t>06181B</t>
+  </si>
+  <si>
+    <t>06182B</t>
+  </si>
+  <si>
+    <t>06221B</t>
+  </si>
+  <si>
+    <t>06222B</t>
+  </si>
+  <si>
+    <t>06241B</t>
+  </si>
+  <si>
+    <t>06242B</t>
+  </si>
+  <si>
+    <t>06261B</t>
+  </si>
+  <si>
+    <t>06262B</t>
+  </si>
+  <si>
+    <t>06281B</t>
+  </si>
+  <si>
+    <t>06282B</t>
+  </si>
+  <si>
+    <t>06202B</t>
+  </si>
+  <si>
+    <t>06202C</t>
+  </si>
+  <si>
+    <t>06202D</t>
+  </si>
+  <si>
+    <t>06202E</t>
+  </si>
+  <si>
+    <t>06202F</t>
+  </si>
+  <si>
+    <t>06202G</t>
+  </si>
+  <si>
+    <t>06201B</t>
+  </si>
+  <si>
+    <t>06201C</t>
+  </si>
+  <si>
+    <t>06201D</t>
+  </si>
+  <si>
+    <t>06201E</t>
+  </si>
+  <si>
+    <t>06201F</t>
+  </si>
+  <si>
+    <t>06201G</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,6 +1277,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1598,9 +1622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B30" sqref="B30:AD30"/>
+      <selection pane="topRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1700,7 +1724,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1764,35 +1788,35 @@
         <v>21</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1824,97 +1848,97 @@
       <c r="AD3" s="7"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1946,97 +1970,97 @@
       <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="10"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2068,97 +2092,97 @@
       <c r="AD7" s="7"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="10"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2190,97 +2214,97 @@
       <c r="AD9" s="7"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="10"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2312,97 +2336,97 @@
       <c r="AD11" s="7"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2434,8 +2458,10 @@
       <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="1:30" s="17" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2466,7 +2492,7 @@
       <c r="AD14" s="19"/>
     </row>
     <row r="15" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2501,88 +2527,88 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
@@ -2676,99 +2702,99 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>171</v>
+      <c r="A18" s="21" t="s">
+        <v>178</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>190</v>
+        <v>346</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AC18" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2800,97 +2826,97 @@
       <c r="AD19" s="11"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>218</v>
+        <v>345</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AC20" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2922,97 +2948,97 @@
       <c r="AD21" s="11"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -3044,97 +3070,97 @@
       <c r="AD23" s="11"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="V24" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="W24" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="X24" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="Y24" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AB24" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AC24" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AC24" s="11" t="s">
+      <c r="AD24" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="12"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -3166,97 +3192,97 @@
       <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="N26" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="O26" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="P26" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="Q26" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="R26" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="S26" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="U26" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="W26" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="X26" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="Y26" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="Z26" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="X26" s="11" t="s">
+      <c r="AA26" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="AB26" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="AC26" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AD26" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -3288,97 +3314,97 @@
       <c r="AD27" s="11"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="G28" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="L28" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="N28" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="O28" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="U28" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="W28" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="Y28" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="U28" s="11" t="s">
+      <c r="Z28" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="AA28" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="AB28" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="AC28" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="AD28" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="12"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -3410,39 +3436,41 @@
       <c r="AD29" s="18"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
     </row>
     <row r="31" spans="1:30" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
